--- a/YhJa1416_VeckoSchema.xlsx
+++ b/YhJa1416_VeckoSchema.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>DOM</t>
   </si>
@@ -101,15 +101,6 @@
   </si>
   <si>
     <t>CSS</t>
-  </si>
-  <si>
-    <t>Filters</t>
-  </si>
-  <si>
-    <t>Directives and Factories</t>
-  </si>
-  <si>
-    <t>Custom Directives</t>
   </si>
   <si>
     <t>v37-2014</t>
@@ -655,6 +646,9 @@
     <xf numFmtId="1" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -686,9 +680,6 @@
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2214,15 +2205,9 @@
       <c r="A21" t="s" s="14">
         <v>16</v>
       </c>
-      <c r="B21" t="s" s="17">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s" s="17">
-        <v>31</v>
-      </c>
-      <c r="D21" t="s" s="17">
-        <v>32</v>
-      </c>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
       <c r="E21" t="s" s="15">
         <v>18</v>
       </c>
@@ -2326,7 +2311,7 @@
     </row>
     <row r="31" ht="19" customHeight="1">
       <c r="A31" t="s" s="14">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s" s="14">
         <v>4</v>
@@ -2359,13 +2344,13 @@
         <v>11</v>
       </c>
       <c r="B33" t="s" s="17">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s" s="17">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D33" t="s" s="17">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E33" t="s" s="15">
         <v>15</v>
@@ -2475,32 +2460,32 @@
       <c r="F42" s="16"/>
     </row>
     <row r="43" ht="19" customHeight="1">
-      <c r="A43" s="21"/>
-      <c r="B43" s="22"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="23"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
     </row>
     <row r="44" ht="19" customHeight="1">
-      <c r="A44" s="24"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
+      <c r="A44" s="25"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
     </row>
     <row r="45" ht="18.5" customHeight="1">
-      <c r="A45" s="24"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28"/>
-      <c r="D45" s="28"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="28"/>
+      <c r="A45" s="25"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
     </row>
     <row r="46" ht="20" customHeight="1">
-      <c r="A46" t="s" s="29">
-        <v>37</v>
+      <c r="A46" t="s" s="30">
+        <v>34</v>
       </c>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -2538,7 +2523,7 @@
     </row>
     <row r="50" ht="19" customHeight="1">
       <c r="A50" t="s" s="14">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B50" t="s" s="14">
         <v>4</v>
@@ -2571,13 +2556,13 @@
         <v>11</v>
       </c>
       <c r="B52" t="s" s="17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C52" t="s" s="17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D52" t="s" s="17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E52" t="s" s="15">
         <v>15</v>
@@ -2594,10 +2579,10 @@
       <c r="C53" s="18"/>
       <c r="D53" s="18"/>
       <c r="E53" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F53" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="54" ht="19" customHeight="1">
@@ -2652,10 +2637,10 @@
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" ht="19" customHeight="1">
@@ -2696,7 +2681,7 @@
     </row>
     <row r="63" ht="19" customHeight="1">
       <c r="A63" t="s" s="14">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B63" t="s" s="14">
         <v>4</v>
@@ -2729,13 +2714,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s" s="17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s" s="17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D65" t="s" s="17">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="E65" t="s" s="15">
         <v>15</v>
@@ -2752,10 +2737,10 @@
       <c r="C66" s="18"/>
       <c r="D66" s="18"/>
       <c r="E66" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F66" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" ht="19" customHeight="1">
@@ -2810,10 +2795,10 @@
       <c r="C71" s="18"/>
       <c r="D71" s="18"/>
       <c r="E71" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F71" t="s" s="15">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" ht="19" customHeight="1">
@@ -2854,7 +2839,7 @@
     </row>
     <row r="76" ht="19" customHeight="1">
       <c r="A76" t="s" s="14">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B76" t="s" s="14">
         <v>4</v>
@@ -2995,32 +2980,32 @@
       <c r="F87" s="16"/>
     </row>
     <row r="88" ht="19" customHeight="1">
-      <c r="A88" s="21"/>
-      <c r="B88" s="22"/>
-      <c r="C88" s="23"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="23"/>
-      <c r="F88" s="23"/>
+      <c r="A88" s="22"/>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
     </row>
     <row r="89" ht="19" customHeight="1">
-      <c r="A89" s="24"/>
-      <c r="B89" s="25"/>
-      <c r="C89" s="26"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="26"/>
-      <c r="F89" s="26"/>
+      <c r="A89" s="25"/>
+      <c r="B89" s="26"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
     </row>
     <row r="90" ht="18.5" customHeight="1">
-      <c r="A90" s="24"/>
-      <c r="B90" s="27"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
-      <c r="E90" s="28"/>
-      <c r="F90" s="28"/>
+      <c r="A90" s="25"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="29"/>
+      <c r="D90" s="29"/>
+      <c r="E90" s="29"/>
+      <c r="F90" s="29"/>
     </row>
     <row r="91" ht="20" customHeight="1">
-      <c r="A91" t="s" s="29">
-        <v>37</v>
+      <c r="A91" t="s" s="30">
+        <v>34</v>
       </c>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3058,7 +3043,7 @@
     </row>
     <row r="95" ht="19" customHeight="1">
       <c r="A95" t="s" s="14">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B95" t="s" s="14">
         <v>4</v>
@@ -3091,13 +3076,13 @@
         <v>11</v>
       </c>
       <c r="B97" t="s" s="17">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C97" t="s" s="17">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D97" t="s" s="17">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E97" t="s" s="15">
         <v>15</v>
@@ -3208,7 +3193,7 @@
     </row>
     <row r="108" ht="19" customHeight="1">
       <c r="A108" t="s" s="14">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B108" t="s" s="14">
         <v>4</v>
@@ -3241,13 +3226,13 @@
         <v>11</v>
       </c>
       <c r="B110" t="s" s="17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C110" t="s" s="17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D110" t="s" s="17">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E110" t="s" s="15">
         <v>15</v>
@@ -3358,7 +3343,7 @@
     </row>
     <row r="121" ht="19" customHeight="1">
       <c r="A121" t="s" s="14">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B121" t="s" s="14">
         <v>4</v>
@@ -3391,13 +3376,13 @@
         <v>11</v>
       </c>
       <c r="B123" t="s" s="17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C123" t="s" s="17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D123" t="s" s="17">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="E123" t="s" s="15">
         <v>15</v>
@@ -3499,32 +3484,32 @@
       <c r="F132" s="16"/>
     </row>
     <row r="133" ht="19" customHeight="1">
-      <c r="A133" s="21"/>
-      <c r="B133" s="22"/>
-      <c r="C133" s="23"/>
-      <c r="D133" s="23"/>
-      <c r="E133" s="23"/>
-      <c r="F133" s="23"/>
+      <c r="A133" s="22"/>
+      <c r="B133" s="23"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
     </row>
     <row r="134" ht="19" customHeight="1">
-      <c r="A134" s="24"/>
-      <c r="B134" s="25"/>
-      <c r="C134" s="26"/>
-      <c r="D134" s="26"/>
-      <c r="E134" s="26"/>
-      <c r="F134" s="26"/>
+      <c r="A134" s="25"/>
+      <c r="B134" s="26"/>
+      <c r="C134" s="27"/>
+      <c r="D134" s="27"/>
+      <c r="E134" s="27"/>
+      <c r="F134" s="27"/>
     </row>
     <row r="135" ht="18.5" customHeight="1">
-      <c r="A135" s="30"/>
-      <c r="B135" s="28"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
-      <c r="E135" s="28"/>
-      <c r="F135" s="28"/>
+      <c r="A135" s="31"/>
+      <c r="B135" s="29"/>
+      <c r="C135" s="29"/>
+      <c r="D135" s="29"/>
+      <c r="E135" s="29"/>
+      <c r="F135" s="29"/>
     </row>
     <row r="136" ht="20" customHeight="1">
-      <c r="A136" t="s" s="29">
-        <v>37</v>
+      <c r="A136" t="s" s="30">
+        <v>34</v>
       </c>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -3562,7 +3547,7 @@
     </row>
     <row r="140" ht="19" customHeight="1">
       <c r="A140" t="s" s="14">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B140" t="s" s="14">
         <v>4</v>
@@ -3582,7 +3567,7 @@
     </row>
     <row r="141" ht="19" customHeight="1">
       <c r="A141" t="s" s="15">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B141" s="16"/>
       <c r="C141" s="16"/>
@@ -3595,13 +3580,13 @@
         <v>11</v>
       </c>
       <c r="B142" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C142" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D142" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E142" t="s" s="15">
         <v>15</v>
@@ -3615,13 +3600,13 @@
         <v>16</v>
       </c>
       <c r="B143" t="s" s="17">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C143" t="s" s="17">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D143" t="s" s="17">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="E143" s="16"/>
       <c r="F143" s="16"/>
@@ -3718,7 +3703,7 @@
     </row>
     <row r="153" ht="19" customHeight="1">
       <c r="A153" t="s" s="14">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B153" t="s" s="14">
         <v>4</v>
@@ -3738,7 +3723,7 @@
     </row>
     <row r="154" ht="19" customHeight="1">
       <c r="A154" t="s" s="15">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B154" s="16"/>
       <c r="C154" s="16"/>
@@ -3751,13 +3736,13 @@
         <v>11</v>
       </c>
       <c r="B155" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C155" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D155" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E155" t="s" s="15">
         <v>15</v>
@@ -3771,13 +3756,13 @@
         <v>16</v>
       </c>
       <c r="B156" t="s" s="17">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C156" t="s" s="17">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D156" t="s" s="17">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E156" s="16"/>
       <c r="F156" s="16"/>
@@ -3788,7 +3773,7 @@
       </c>
       <c r="B157" s="18"/>
       <c r="C157" t="s" s="17">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D157" s="18"/>
       <c r="E157" s="16"/>
@@ -3876,7 +3861,7 @@
     </row>
     <row r="166" ht="19" customHeight="1">
       <c r="A166" t="s" s="14">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B166" t="s" s="14">
         <v>4</v>
@@ -3896,7 +3881,7 @@
     </row>
     <row r="167" ht="19" customHeight="1">
       <c r="A167" t="s" s="15">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B167" s="16"/>
       <c r="C167" s="16"/>
@@ -3909,13 +3894,13 @@
         <v>11</v>
       </c>
       <c r="B168" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C168" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D168" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E168" t="s" s="15">
         <v>15</v>
@@ -3929,13 +3914,13 @@
         <v>16</v>
       </c>
       <c r="B169" t="s" s="17">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C169" t="s" s="17">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D169" t="s" s="17">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E169" s="16"/>
       <c r="F169" s="16"/>
@@ -3945,13 +3930,13 @@
         <v>19</v>
       </c>
       <c r="B170" t="s" s="17">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C170" t="s" s="17">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D170" t="s" s="17">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E170" s="16"/>
       <c r="F170" s="16"/>
@@ -4037,32 +4022,32 @@
       <c r="F178" s="16"/>
     </row>
     <row r="179" ht="19" customHeight="1">
-      <c r="A179" s="21"/>
-      <c r="B179" s="22"/>
-      <c r="C179" s="23"/>
-      <c r="D179" s="23"/>
-      <c r="E179" s="23"/>
-      <c r="F179" s="23"/>
+      <c r="A179" s="22"/>
+      <c r="B179" s="23"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
+      <c r="E179" s="24"/>
+      <c r="F179" s="24"/>
     </row>
     <row r="180" ht="19" customHeight="1">
-      <c r="A180" s="24"/>
-      <c r="B180" s="25"/>
-      <c r="C180" s="26"/>
-      <c r="D180" s="26"/>
-      <c r="E180" s="26"/>
-      <c r="F180" s="26"/>
+      <c r="A180" s="25"/>
+      <c r="B180" s="26"/>
+      <c r="C180" s="27"/>
+      <c r="D180" s="27"/>
+      <c r="E180" s="27"/>
+      <c r="F180" s="27"/>
     </row>
     <row r="181" ht="18.5" customHeight="1">
-      <c r="A181" s="30"/>
-      <c r="B181" s="28"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
-      <c r="E181" s="28"/>
-      <c r="F181" s="28"/>
+      <c r="A181" s="31"/>
+      <c r="B181" s="29"/>
+      <c r="C181" s="29"/>
+      <c r="D181" s="29"/>
+      <c r="E181" s="29"/>
+      <c r="F181" s="29"/>
     </row>
     <row r="182" ht="23" customHeight="1">
-      <c r="A182" t="s" s="29">
-        <v>37</v>
+      <c r="A182" t="s" s="30">
+        <v>34</v>
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -4100,7 +4085,7 @@
     </row>
     <row r="186" ht="19" customHeight="1">
       <c r="A186" t="s" s="14">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B186" t="s" s="14">
         <v>4</v>
@@ -4120,7 +4105,7 @@
     </row>
     <row r="187" ht="19" customHeight="1">
       <c r="A187" t="s" s="15">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B187" s="16"/>
       <c r="C187" s="16"/>
@@ -4133,13 +4118,13 @@
         <v>11</v>
       </c>
       <c r="B188" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C188" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D188" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E188" t="s" s="15">
         <v>15</v>
@@ -4153,13 +4138,13 @@
         <v>16</v>
       </c>
       <c r="B189" t="s" s="17">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C189" t="s" s="17">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D189" t="s" s="17">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
@@ -4256,7 +4241,7 @@
     </row>
     <row r="199" ht="19" customHeight="1">
       <c r="A199" t="s" s="14">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B199" t="s" s="14">
         <v>4</v>
@@ -4276,7 +4261,7 @@
     </row>
     <row r="200" ht="19" customHeight="1">
       <c r="A200" t="s" s="15">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B200" s="16"/>
       <c r="C200" s="16"/>
@@ -4289,13 +4274,13 @@
         <v>11</v>
       </c>
       <c r="B201" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C201" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D201" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E201" t="s" s="15">
         <v>15</v>
@@ -4309,10 +4294,10 @@
         <v>16</v>
       </c>
       <c r="B202" t="s" s="17">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C202" t="s" s="17">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D202" s="18"/>
       <c r="E202" s="16"/>
@@ -4410,7 +4395,7 @@
     </row>
     <row r="212" ht="19" customHeight="1">
       <c r="A212" t="s" s="14">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B212" t="s" s="14">
         <v>4</v>
@@ -4430,7 +4415,7 @@
     </row>
     <row r="213" ht="19" customHeight="1">
       <c r="A213" t="s" s="15">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B213" s="16"/>
       <c r="C213" s="16"/>
@@ -4443,13 +4428,13 @@
         <v>11</v>
       </c>
       <c r="B214" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C214" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D214" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E214" t="s" s="15">
         <v>15</v>
@@ -4463,13 +4448,13 @@
         <v>16</v>
       </c>
       <c r="B215" t="s" s="17">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C215" t="s" s="17">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D215" t="s" s="17">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E215" s="16"/>
       <c r="F215" s="16"/>
@@ -4565,32 +4550,32 @@
       <c r="F224" s="16"/>
     </row>
     <row r="225" ht="19" customHeight="1">
-      <c r="A225" s="21"/>
-      <c r="B225" s="22"/>
-      <c r="C225" s="23"/>
-      <c r="D225" s="23"/>
-      <c r="E225" s="23"/>
-      <c r="F225" s="23"/>
+      <c r="A225" s="22"/>
+      <c r="B225" s="23"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
+      <c r="E225" s="24"/>
+      <c r="F225" s="24"/>
     </row>
     <row r="226" ht="19" customHeight="1">
-      <c r="A226" s="24"/>
-      <c r="B226" s="25"/>
-      <c r="C226" s="26"/>
-      <c r="D226" s="26"/>
-      <c r="E226" s="26"/>
-      <c r="F226" s="26"/>
+      <c r="A226" s="25"/>
+      <c r="B226" s="26"/>
+      <c r="C226" s="27"/>
+      <c r="D226" s="27"/>
+      <c r="E226" s="27"/>
+      <c r="F226" s="27"/>
     </row>
     <row r="227" ht="18.5" customHeight="1">
-      <c r="A227" s="30"/>
-      <c r="B227" s="28"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="28"/>
-      <c r="E227" s="28"/>
-      <c r="F227" s="28"/>
+      <c r="A227" s="31"/>
+      <c r="B227" s="29"/>
+      <c r="C227" s="29"/>
+      <c r="D227" s="29"/>
+      <c r="E227" s="29"/>
+      <c r="F227" s="29"/>
     </row>
     <row r="228" ht="23" customHeight="1">
-      <c r="A228" t="s" s="29">
-        <v>37</v>
+      <c r="A228" t="s" s="30">
+        <v>34</v>
       </c>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -4628,7 +4613,7 @@
     </row>
     <row r="232" ht="19" customHeight="1">
       <c r="A232" t="s" s="14">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B232" t="s" s="14">
         <v>4</v>
@@ -4648,7 +4633,7 @@
     </row>
     <row r="233" ht="19" customHeight="1">
       <c r="A233" t="s" s="15">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B233" s="16"/>
       <c r="C233" s="16"/>
@@ -4661,13 +4646,13 @@
         <v>11</v>
       </c>
       <c r="B234" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C234" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D234" t="s" s="17">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="E234" t="s" s="15">
         <v>15</v>
@@ -4681,10 +4666,10 @@
         <v>16</v>
       </c>
       <c r="B235" t="s" s="17">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C235" t="s" s="17">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D235" s="18"/>
       <c r="E235" s="16"/>
@@ -4782,7 +4767,7 @@
     </row>
     <row r="245" ht="19" customHeight="1">
       <c r="A245" t="s" s="14">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B245" t="s" s="14">
         <v>4</v>
@@ -4802,7 +4787,7 @@
     </row>
     <row r="246" ht="19" customHeight="1">
       <c r="A246" t="s" s="15">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B246" s="16"/>
       <c r="C246" s="16"/>
@@ -4814,8 +4799,8 @@
       <c r="A247" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="B247" t="s" s="31">
-        <v>78</v>
+      <c r="B247" t="s" s="32">
+        <v>75</v>
       </c>
       <c r="C247" s="18"/>
       <c r="D247" s="18"/>
@@ -4827,13 +4812,13 @@
         <v>16</v>
       </c>
       <c r="B248" t="s" s="17">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C248" t="s" s="17">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D248" t="s" s="17">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E248" s="16"/>
       <c r="F248" s="16"/>
@@ -4930,7 +4915,7 @@
     </row>
     <row r="258" ht="19" customHeight="1">
       <c r="A258" t="s" s="14">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B258" t="s" s="14">
         <v>4</v>
@@ -4950,7 +4935,7 @@
     </row>
     <row r="259" ht="19" customHeight="1">
       <c r="A259" t="s" s="15">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B259" s="16"/>
       <c r="C259" s="16"/>
@@ -4962,8 +4947,8 @@
       <c r="A260" t="s" s="14">
         <v>11</v>
       </c>
-      <c r="B260" t="s" s="31">
-        <v>78</v>
+      <c r="B260" t="s" s="32">
+        <v>75</v>
       </c>
       <c r="C260" s="18"/>
       <c r="D260" s="18"/>
@@ -4979,13 +4964,13 @@
         <v>16</v>
       </c>
       <c r="B261" t="s" s="17">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C261" t="s" s="17">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D261" t="s" s="17">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E261" s="16"/>
       <c r="F261" s="16"/>
@@ -5081,32 +5066,32 @@
       <c r="F270" s="16"/>
     </row>
     <row r="271" ht="19" customHeight="1">
-      <c r="A271" s="21"/>
-      <c r="B271" s="22"/>
-      <c r="C271" s="23"/>
-      <c r="D271" s="23"/>
-      <c r="E271" s="23"/>
-      <c r="F271" s="23"/>
+      <c r="A271" s="22"/>
+      <c r="B271" s="23"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
+      <c r="E271" s="24"/>
+      <c r="F271" s="24"/>
     </row>
     <row r="272" ht="19" customHeight="1">
-      <c r="A272" s="24"/>
-      <c r="B272" s="25"/>
-      <c r="C272" s="26"/>
-      <c r="D272" s="26"/>
-      <c r="E272" s="26"/>
-      <c r="F272" s="26"/>
+      <c r="A272" s="25"/>
+      <c r="B272" s="26"/>
+      <c r="C272" s="27"/>
+      <c r="D272" s="27"/>
+      <c r="E272" s="27"/>
+      <c r="F272" s="27"/>
     </row>
     <row r="273" ht="19" customHeight="1">
-      <c r="A273" s="30"/>
-      <c r="B273" s="28"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="28"/>
-      <c r="E273" s="28"/>
-      <c r="F273" s="28"/>
+      <c r="A273" s="31"/>
+      <c r="B273" s="29"/>
+      <c r="C273" s="29"/>
+      <c r="D273" s="29"/>
+      <c r="E273" s="29"/>
+      <c r="F273" s="29"/>
     </row>
     <row r="274" ht="19" customHeight="1">
-      <c r="A274" t="s" s="29">
-        <v>37</v>
+      <c r="A274" t="s" s="30">
+        <v>34</v>
       </c>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -5144,7 +5129,7 @@
     </row>
     <row r="278" ht="19" customHeight="1">
       <c r="A278" t="s" s="14">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B278" t="s" s="14">
         <v>4</v>
@@ -5164,7 +5149,7 @@
     </row>
     <row r="279" ht="19" customHeight="1">
       <c r="A279" t="s" s="15">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B279" s="16"/>
       <c r="C279" s="16"/>
@@ -5177,13 +5162,13 @@
         <v>11</v>
       </c>
       <c r="B280" t="s" s="17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C280" t="s" s="17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D280" t="s" s="17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E280" t="s" s="15">
         <v>15</v>
@@ -5197,13 +5182,13 @@
         <v>16</v>
       </c>
       <c r="B281" t="s" s="17">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C281" t="s" s="17">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D281" t="s" s="17">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E281" s="16"/>
       <c r="F281" s="16"/>
@@ -5300,7 +5285,7 @@
     </row>
     <row r="291" ht="19" customHeight="1">
       <c r="A291" t="s" s="14">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B291" t="s" s="14">
         <v>4</v>
@@ -5320,12 +5305,12 @@
     </row>
     <row r="292" ht="19" customHeight="1">
       <c r="A292" t="s" s="15">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B292" s="16"/>
       <c r="C292" s="16"/>
       <c r="D292" s="16"/>
-      <c r="E292" s="32"/>
+      <c r="E292" s="16"/>
       <c r="F292" s="16"/>
     </row>
     <row r="293" ht="19" customHeight="1">
@@ -5333,19 +5318,19 @@
         <v>11</v>
       </c>
       <c r="B293" t="s" s="17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C293" t="s" s="17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D293" t="s" s="17">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E293" t="s" s="15">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F293" t="s" s="15">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="294" ht="19" customHeight="1">
@@ -5353,13 +5338,13 @@
         <v>16</v>
       </c>
       <c r="B294" t="s" s="17">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C294" t="s" s="17">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D294" t="s" s="17">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E294" s="16"/>
       <c r="F294" s="16"/>
@@ -5401,7 +5386,7 @@
       <c r="B298" s="18"/>
       <c r="C298" s="18"/>
       <c r="D298" t="s" s="17">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E298" t="s" s="15">
         <v>15</v>
